--- a/data/trans_dic/P73-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P73-Clase-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -685,47 +686,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>71,33; 79,48</t>
+          <t>71,62; 79,78</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>68,35; 77,33</t>
+          <t>68,31; 76,9</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>56,6; 66,52</t>
+          <t>56,5; 66,36</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>59,43; 70,87</t>
+          <t>59,67; 70,35</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>65,32; 76,42</t>
+          <t>65,77; 76,51</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>56,08; 66,26</t>
+          <t>56,49; 66,75</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>67,78; 74,82</t>
+          <t>68,49; 74,88</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>68,26; 75,38</t>
+          <t>68,52; 75,28</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>57,89; 65,38</t>
+          <t>58,11; 65,41</t>
         </is>
       </c>
     </row>
@@ -795,47 +796,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>65,82; 75,83</t>
+          <t>65,99; 75,86</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>67,89; 77,73</t>
+          <t>67,96; 77,22</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>72,65; 81,8</t>
+          <t>72,59; 81,17</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>61,03; 70,91</t>
+          <t>60,75; 70,36</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>67,7; 77,54</t>
+          <t>68,01; 77,86</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>60,93; 70,97</t>
+          <t>60,63; 70,59</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>65,17; 71,75</t>
+          <t>64,99; 71,63</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>69,63; 76,34</t>
+          <t>69,56; 76,55</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>68,3; 75,19</t>
+          <t>67,75; 74,92</t>
         </is>
       </c>
     </row>
@@ -905,47 +906,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>72,34; 79,72</t>
+          <t>72,34; 79,35</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>72,19; 79,39</t>
+          <t>72,5; 79,79</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>70,51; 78,0</t>
+          <t>70,99; 78,8</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>65,78; 79,79</t>
+          <t>65,65; 79,5</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>64,21; 75,24</t>
+          <t>63,63; 74,66</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>57,27; 73,14</t>
+          <t>56,95; 72,58</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>72,14; 78,5</t>
+          <t>71,84; 78,25</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>71,02; 77,08</t>
+          <t>71,0; 77,29</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>68,88; 75,81</t>
+          <t>69,42; 75,93</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1016,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>68,93; 74,19</t>
+          <t>69,08; 73,93</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>66,86; 72,63</t>
+          <t>67,05; 72,66</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>69,46; 74,67</t>
+          <t>69,19; 74,73</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>57,6; 64,8</t>
+          <t>57,58; 64,92</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>63,02; 69,78</t>
+          <t>62,91; 70,07</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>55,36; 62,32</t>
+          <t>54,97; 62,0</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>65,6; 69,72</t>
+          <t>65,43; 69,77</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>66,32; 70,84</t>
+          <t>66,06; 70,49</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>64,28; 68,46</t>
+          <t>64,17; 68,5</t>
         </is>
       </c>
     </row>
@@ -1125,47 +1126,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>55,51; 66,06</t>
+          <t>55,19; 65,46</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>56,14; 65,16</t>
+          <t>56,45; 65,01</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>54,91; 63,19</t>
+          <t>55,28; 63,35</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>65,21; 73,52</t>
+          <t>65,21; 73,38</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>64,01; 71,05</t>
+          <t>64,11; 70,94</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>59,89; 66,74</t>
+          <t>59,61; 66,78</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>63,26; 69,74</t>
+          <t>62,85; 69,44</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>62,05; 67,2</t>
+          <t>62,03; 67,65</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>58,5; 63,81</t>
+          <t>58,83; 64,3</t>
         </is>
       </c>
     </row>
@@ -1235,47 +1236,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,6; 4,28</t>
+          <t>0,62; 4,54</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,07</t>
+          <t>0,0; 2,79</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>1,83; 6,48</t>
+          <t>1,99; 6,64</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>54,5; 60,01</t>
+          <t>54,45; 59,92</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>53,55; 59,37</t>
+          <t>53,47; 59,38</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>53,21; 59,42</t>
+          <t>53,49; 60,03</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>44,3; 49,21</t>
+          <t>43,94; 48,97</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>43,12; 48,41</t>
+          <t>43,07; 48,49</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>42,83; 48,21</t>
+          <t>42,7; 48,4</t>
         </is>
       </c>
     </row>
@@ -1345,47 +1346,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>63,66; 67,01</t>
+          <t>63,62; 67,18</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>63,56; 66,88</t>
+          <t>63,55; 66,85</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>61,94; 65,36</t>
+          <t>61,9; 65,25</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>60,9; 64,15</t>
+          <t>60,98; 64,4</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>63,12; 66,4</t>
+          <t>63,25; 66,43</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>58,64; 61,93</t>
+          <t>58,76; 62,05</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>62,85; 65,14</t>
+          <t>62,86; 65,18</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>63,75; 66,11</t>
+          <t>63,72; 66,15</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>60,79; 63,24</t>
+          <t>60,85; 63,22</t>
         </is>
       </c>
     </row>
@@ -1412,4 +1413,1291 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que están casados o viven en pareja</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Grupo I y II</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>346</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>290</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>248</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>194</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>207</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>540</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>490</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>455</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>358914</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>318258</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>264751</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>200291</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>222835</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>213783</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>559205</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>541093</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>478535</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>339325; 377962</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>298093; 335575</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>242436; 284760</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>182988; 215755</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>206141; 239824</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>196041; 231667</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>534567; 584390</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>513774; 564446</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>451020; 507688</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Grupo III</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>253</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>271</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>273</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>233</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>216</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>234</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>486</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>487</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>507</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>261149</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>304901</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>292270</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>244032</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>244661</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>245635</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>505181</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>549562</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>537905</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>242131; 278346</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>284028; 322712</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>273816; 306196</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>225912; 261654</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>227279; 260180</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>225695; 262788</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>480110; 529174</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>523129; 575699</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>507767; 561506</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Grupo IV y V</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>401</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>450</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>371</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>121</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>169</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>522</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>619</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>472</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>412695</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>476174</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>390185</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>122854</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>180152</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>108709</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>535549</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>656325</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>498894</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>392351; 430409</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>453889; 499481</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>369778; 410429</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>110156; 133394</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>164916; 193522</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>94601; 120568</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>510169; 555708</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>628511; 684145</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>476932; 521633</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VI</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>879</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>753</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>791</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>428</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>472</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>466</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>1307</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>1225</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>1257</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>886413</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>808911</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>827790</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>436936</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>508822</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>484836</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>1323350</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>1317733</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>1312627</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>855449; 915502</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>775937; 840968</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>794764; 858344</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>411270; 463691</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>481189; 535915</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>453986; 512041</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>1277519; 1362247</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>1269798; 1354975</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>1266978; 1352470</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VII</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>207</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>292</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>349</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>377</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>470</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>450</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>584</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>762</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>799</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>212117</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>309218</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>367749</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>396227</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>511383</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>467290</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>608343</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>820601</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>835039</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>192952; 228873</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>287102; 330652</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>342537; 392572</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>370910; 417367</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>486880; 538752</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>440046; 493007</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>577224; 637730</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>786533; 857849</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>798875; 873186</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>No ha trabajado</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>700</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>581</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>559</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>705</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>583</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>569</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>5872</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>2280</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>10474</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>713918</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>622543</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>611723</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>719789</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>624823</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>622196</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>1834; 13531</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>0; 7358</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>5709; 19073</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>679888; 748241</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>589534; 654678</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>577787; 648420</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>679798; 757544</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>588515; 662539</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>583815; 661781</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>2091</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>2058</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>2042</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>2053</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>2108</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>4144</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>4166</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>4059</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>2137161</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>2219741</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>2153219</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>2114257</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>2290396</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>2131976</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>4251418</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>4510137</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>4285195</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>2080016; 2196263</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>2166957; 2279512</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>2093872; 2207085</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>2059910; 2175472</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>2235149; 2347443</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>2073936; 2190048</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>4178463; 4332705</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>4424292; 4593324</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>4206296; 4369960</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/data/trans_dic/P73-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P73-Clase-trans_dic.xlsx
@@ -1173,7 +1173,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -2354,7 +2354,7 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B19" s="3" t="inlineStr">
